--- a/tag-all.xlsx
+++ b/tag-all.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Customer Number</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -3091,12 +3091,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6803,12 +6803,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7615,12 +7615,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -7963,12 +7963,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -11501,12 +11501,12 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11791,12 +11791,12 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -12439,7 +12439,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -12961,7 +12961,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -13367,7 +13367,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -13937,7 +13937,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -14353,7 +14353,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14701,7 +14701,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -15107,7 +15107,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15339,7 +15339,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15397,7 +15397,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15629,7 +15629,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15687,7 +15687,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15745,7 +15745,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -15914,7 +15914,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -16784,7 +16784,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -16905,7 +16905,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -17480,7 +17480,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -17707,7 +17707,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -17770,7 +17770,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -18113,7 +18113,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -18234,7 +18234,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -18461,7 +18461,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -18577,7 +18577,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -19104,7 +19104,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -19225,7 +19225,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -19510,7 +19510,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -19621,12 +19621,12 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -19679,7 +19679,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -20095,7 +20095,7 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -20211,7 +20211,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -20264,7 +20264,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -20385,7 +20385,7 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -20443,7 +20443,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -20496,7 +20496,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -20723,7 +20723,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -21129,7 +21129,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -21245,7 +21245,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -21371,7 +21371,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -21429,7 +21429,7 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -21603,7 +21603,7 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -21777,7 +21777,7 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -21835,7 +21835,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -22004,7 +22004,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -22062,7 +22062,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -22231,12 +22231,12 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -22531,7 +22531,7 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -22695,17 +22695,17 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -22985,7 +22985,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -23391,12 +23391,12 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -23454,7 +23454,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -23749,7 +23749,7 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -23807,7 +23807,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -23923,7 +23923,7 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -24435,12 +24435,12 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -24725,7 +24725,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -24793,7 +24793,7 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -24967,7 +24967,7 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25025,7 +25025,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25141,7 +25141,7 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25373,7 +25373,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25431,7 +25431,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25547,7 +25547,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25716,12 +25716,12 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25779,7 +25779,7 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25895,7 +25895,7 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -26011,7 +26011,7 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -26069,7 +26069,7 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -26180,7 +26180,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -26243,7 +26243,7 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -26301,7 +26301,7 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -26760,7 +26760,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -26818,7 +26818,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -26934,7 +26934,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -26992,7 +26992,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -27113,7 +27113,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -27161,7 +27161,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -27345,7 +27345,7 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -27403,7 +27403,7 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -27809,7 +27809,7 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -27867,7 +27867,7 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -27983,7 +27983,7 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -28041,7 +28041,7 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -28099,7 +28099,7 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -28157,7 +28157,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -28215,7 +28215,7 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -28273,7 +28273,7 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -28389,7 +28389,7 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -28447,7 +28447,7 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -28737,7 +28737,7 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -28843,7 +28843,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -28906,12 +28906,12 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -29017,7 +29017,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -29143,7 +29143,7 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -29201,7 +29201,7 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -29723,7 +29723,7 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -29839,7 +29839,7 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -29897,7 +29897,7 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -30008,12 +30008,12 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -30129,7 +30129,7 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -30245,7 +30245,7 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -30351,7 +30351,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -30414,7 +30414,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -30873,7 +30873,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -31115,7 +31115,7 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -31279,12 +31279,12 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -31400,7 +31400,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -31685,12 +31685,12 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -31864,7 +31864,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -32381,7 +32381,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -32391,7 +32391,7 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -32681,7 +32681,7 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -32739,7 +32739,7 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -32966,7 +32966,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -33140,7 +33140,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -33314,7 +33314,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -33493,7 +33493,7 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -33599,7 +33599,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -33667,7 +33667,7 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -34189,7 +34189,7 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -34585,7 +34585,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -34711,7 +34711,7 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -34822,7 +34822,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -34880,7 +34880,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -34938,7 +34938,7 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
@@ -34996,7 +34996,7 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -35049,7 +35049,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -35281,7 +35281,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -35518,7 +35518,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -35634,7 +35634,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -35982,7 +35982,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -36209,7 +36209,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -36272,7 +36272,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -36567,7 +36567,7 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -36625,7 +36625,7 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -36736,7 +36736,7 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
@@ -36789,7 +36789,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -36799,7 +36799,7 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -36857,7 +36857,7 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -36963,7 +36963,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -37031,7 +37031,7 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -37089,7 +37089,7 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -37147,7 +37147,7 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -37253,7 +37253,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -37321,7 +37321,7 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -37601,7 +37601,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -38123,7 +38123,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -38186,7 +38186,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -38302,7 +38302,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -38534,7 +38534,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -38650,7 +38650,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -39056,7 +39056,7 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
@@ -39457,12 +39457,12 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -39747,7 +39747,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -39984,7 +39984,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -40047,7 +40047,7 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -40095,7 +40095,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">
@@ -40163,7 +40163,7 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -40221,7 +40221,7 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -40274,7 +40274,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -40395,7 +40395,7 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -40569,7 +40569,7 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -40627,7 +40627,7 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41033,7 +41033,7 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41091,7 +41091,7 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41381,7 +41381,7 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41439,7 +41439,7 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41545,17 +41545,17 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L709" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -41613,7 +41613,7 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41671,7 +41671,7 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41729,7 +41729,7 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -41956,12 +41956,12 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -42009,7 +42009,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -42019,7 +42019,7 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -42135,7 +42135,7 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -42193,7 +42193,7 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -42246,7 +42246,7 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
@@ -42425,7 +42425,7 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -42483,7 +42483,7 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -42652,7 +42652,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -42831,7 +42831,7 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -42889,7 +42889,7 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -43754,7 +43754,7 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
@@ -43812,12 +43812,12 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="L748" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -43981,7 +43981,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -44044,7 +44044,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -44165,7 +44165,7 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -44223,7 +44223,7 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -44276,12 +44276,12 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -44329,7 +44329,7 @@
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K757" t="inlineStr">
@@ -44397,7 +44397,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -44455,7 +44455,7 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -44513,7 +44513,7 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -44798,7 +44798,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -44914,7 +44914,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -45146,7 +45146,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -45199,7 +45199,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K772" t="inlineStr">
@@ -45262,7 +45262,7 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
@@ -45610,7 +45610,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -45721,7 +45721,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K781" t="inlineStr">
@@ -45784,7 +45784,7 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
@@ -45905,7 +45905,7 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46021,7 +46021,7 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46311,7 +46311,7 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46369,7 +46369,7 @@
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46427,7 +46427,7 @@
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46480,7 +46480,7 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
@@ -46533,7 +46533,7 @@
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K795" t="inlineStr">
@@ -46543,7 +46543,7 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46775,7 +46775,7 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -46833,7 +46833,7 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -47002,7 +47002,7 @@
       </c>
       <c r="K803" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L803" t="inlineStr">
@@ -47060,7 +47060,7 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
@@ -47350,7 +47350,7 @@
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
@@ -47461,12 +47461,12 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
@@ -47582,12 +47582,12 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="L813" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -47693,7 +47693,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
@@ -47756,12 +47756,12 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -47819,7 +47819,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -47872,7 +47872,7 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
@@ -47993,7 +47993,7 @@
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -48041,7 +48041,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
@@ -48099,7 +48099,7 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K822" t="inlineStr">
@@ -48162,7 +48162,7 @@
       </c>
       <c r="K823" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L823" t="inlineStr">
@@ -48568,7 +48568,7 @@
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L830" t="inlineStr">
@@ -48742,7 +48742,7 @@
       </c>
       <c r="K833" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L833" t="inlineStr">
@@ -48911,7 +48911,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -48979,7 +48979,7 @@
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -49027,7 +49027,7 @@
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K838" t="inlineStr">
@@ -49385,7 +49385,7 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -49607,7 +49607,7 @@
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K848" t="inlineStr">
@@ -49617,7 +49617,7 @@
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -49723,7 +49723,7 @@
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K850" t="inlineStr">
@@ -49849,7 +49849,7 @@
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -49907,7 +49907,7 @@
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -49965,7 +49965,7 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -50023,7 +50023,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -50139,7 +50139,7 @@
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -50197,7 +50197,7 @@
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -50308,12 +50308,12 @@
       </c>
       <c r="K860" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L860" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="L860" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -50371,7 +50371,7 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -50767,7 +50767,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
@@ -51115,7 +51115,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
@@ -51125,7 +51125,7 @@
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51183,7 +51183,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51299,7 +51299,7 @@
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51821,7 +51821,7 @@
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -51937,7 +51937,7 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -52053,7 +52053,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -52227,7 +52227,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -52396,7 +52396,7 @@
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
@@ -52459,7 +52459,7 @@
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -52517,7 +52517,7 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -52565,7 +52565,7 @@
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K899" t="inlineStr">
@@ -52575,7 +52575,7 @@
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -52623,17 +52623,17 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -52981,7 +52981,7 @@
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53029,7 +53029,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
@@ -53271,7 +53271,7 @@
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53319,7 +53319,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
@@ -53503,7 +53503,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53619,7 +53619,7 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53677,7 +53677,7 @@
       </c>
       <c r="L918" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53793,7 +53793,7 @@
       </c>
       <c r="L920" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53851,7 +53851,7 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -53957,17 +53957,17 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L923" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -54257,7 +54257,7 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -54431,7 +54431,7 @@
       </c>
       <c r="L931" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -54605,7 +54605,7 @@
       </c>
       <c r="L934" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -54663,7 +54663,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -54721,7 +54721,7 @@
       </c>
       <c r="L936" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -54774,12 +54774,12 @@
       </c>
       <c r="K937" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -54832,7 +54832,7 @@
       </c>
       <c r="K938" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L938" t="inlineStr">
@@ -54953,7 +54953,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -55011,7 +55011,7 @@
       </c>
       <c r="L941" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -55301,7 +55301,7 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -55465,7 +55465,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K949" t="inlineStr">
@@ -55475,7 +55475,7 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -55533,7 +55533,7 @@
       </c>
       <c r="L950" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -55581,17 +55581,17 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L951" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L951" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -55823,7 +55823,7 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -55934,7 +55934,7 @@
       </c>
       <c r="K957" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L957" t="inlineStr">
@@ -56171,7 +56171,7 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -56625,7 +56625,7 @@
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K969" t="inlineStr">
@@ -56688,7 +56688,7 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
@@ -56862,7 +56862,7 @@
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
@@ -57094,7 +57094,7 @@
       </c>
       <c r="K977" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L977" t="inlineStr">
@@ -57500,7 +57500,7 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
@@ -57732,7 +57732,7 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
@@ -57785,7 +57785,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K989" t="inlineStr">
@@ -57969,7 +57969,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -58196,7 +58196,7 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
@@ -58259,7 +58259,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -58312,7 +58312,7 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
@@ -58423,7 +58423,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1000" t="inlineStr">
@@ -58839,7 +58839,7 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -58897,7 +58897,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -58955,7 +58955,7 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -59008,7 +59008,7 @@
       </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1010" t="inlineStr">
@@ -59071,7 +59071,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -59124,7 +59124,7 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
@@ -59187,7 +59187,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -59245,7 +59245,7 @@
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -59303,7 +59303,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -59472,7 +59472,7 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
@@ -59530,7 +59530,7 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
@@ -59999,7 +59999,7 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -60057,7 +60057,7 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -60115,7 +60115,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -60284,7 +60284,7 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
@@ -60453,12 +60453,12 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
@@ -60637,7 +60637,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -60743,7 +60743,7 @@
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1040" t="inlineStr">
@@ -60927,7 +60927,7 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -61038,7 +61038,7 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
@@ -61439,7 +61439,7 @@
       </c>
       <c r="J1052" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1052" t="inlineStr">
@@ -61565,7 +61565,7 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -61613,7 +61613,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1055" t="inlineStr">
@@ -61681,7 +61681,7 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -61739,7 +61739,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -61797,7 +61797,7 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -61913,7 +61913,7 @@
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -61971,7 +61971,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -62019,7 +62019,7 @@
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -62198,7 +62198,7 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
@@ -62599,12 +62599,12 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
@@ -62657,7 +62657,7 @@
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1073" t="inlineStr">
@@ -62778,7 +62778,7 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
@@ -62831,7 +62831,7 @@
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1076" t="inlineStr">
@@ -62894,7 +62894,7 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
@@ -63063,7 +63063,7 @@
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1080" t="inlineStr">
@@ -63121,7 +63121,7 @@
       </c>
       <c r="J1081" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1081" t="inlineStr">
@@ -63179,7 +63179,7 @@
       </c>
       <c r="J1082" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1082" t="inlineStr">
@@ -63421,7 +63421,7 @@
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -63537,7 +63537,7 @@
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -63933,12 +63933,12 @@
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
@@ -63991,7 +63991,7 @@
       </c>
       <c r="J1096" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1096" t="inlineStr">
@@ -64054,7 +64054,7 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
@@ -64107,7 +64107,7 @@
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1098" t="inlineStr">
@@ -64281,7 +64281,7 @@
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K1101" t="inlineStr">
@@ -64455,17 +64455,17 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L1104" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L1104" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -64687,12 +64687,12 @@
       </c>
       <c r="J1108" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
@@ -64803,7 +64803,7 @@
       </c>
       <c r="J1110" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1110" t="inlineStr">
@@ -65103,7 +65103,7 @@
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -65161,7 +65161,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -65219,7 +65219,7 @@
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -65451,7 +65451,7 @@
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -65509,7 +65509,7 @@
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -65562,12 +65562,12 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -65625,7 +65625,7 @@
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -65915,7 +65915,7 @@
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -65973,7 +65973,7 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -66147,7 +66147,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -66321,7 +66321,7 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -66437,7 +66437,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -66611,7 +66611,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -66669,7 +66669,7 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -66949,12 +66949,12 @@
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
@@ -67070,7 +67070,7 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
@@ -67249,7 +67249,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -67355,7 +67355,7 @@
       </c>
       <c r="J1154" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K1154" t="inlineStr">
@@ -67471,7 +67471,7 @@
       </c>
       <c r="J1156" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1156" t="inlineStr">
@@ -67655,7 +67655,7 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -67713,7 +67713,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -67877,7 +67877,7 @@
       </c>
       <c r="J1163" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1163" t="inlineStr">
@@ -68003,7 +68003,7 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -68235,7 +68235,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -68467,7 +68467,7 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -68520,12 +68520,12 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L1174" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="L1174" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -68583,7 +68583,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -68641,7 +68641,7 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -68699,7 +68699,7 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -68931,7 +68931,7 @@
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -69047,7 +69047,7 @@
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -69105,7 +69105,7 @@
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -69221,7 +69221,7 @@
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -69269,7 +69269,7 @@
       </c>
       <c r="J1187" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1187" t="inlineStr">
@@ -69279,7 +69279,7 @@
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -69448,7 +69448,7 @@
       </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1190" t="inlineStr">
@@ -69743,7 +69743,7 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -69917,7 +69917,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -70139,12 +70139,12 @@
       </c>
       <c r="J1202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L1202" t="inlineStr">
@@ -70439,7 +70439,7 @@
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -70555,7 +70555,7 @@
       </c>
       <c r="L1209" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -70787,7 +70787,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -70845,7 +70845,7 @@
       </c>
       <c r="L1214" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -70961,7 +70961,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -71014,7 +71014,7 @@
       </c>
       <c r="K1217" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L1217" t="inlineStr">
@@ -71072,12 +71072,12 @@
       </c>
       <c r="K1218" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1218" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -71135,7 +71135,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -71251,7 +71251,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -71415,7 +71415,7 @@
       </c>
       <c r="J1224" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K1224" t="inlineStr">
@@ -71541,7 +71541,7 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -71599,7 +71599,7 @@
       </c>
       <c r="L1227" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -71657,7 +71657,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -71715,7 +71715,7 @@
       </c>
       <c r="L1229" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -71763,7 +71763,7 @@
       </c>
       <c r="J1230" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1230" t="inlineStr">
@@ -71831,7 +71831,7 @@
       </c>
       <c r="L1231" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -71942,12 +71942,12 @@
       </c>
       <c r="K1233" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1233" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72116,7 +72116,7 @@
       </c>
       <c r="K1236" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1236" t="inlineStr">
@@ -72237,7 +72237,7 @@
       </c>
       <c r="L1238" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72295,7 +72295,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72353,7 +72353,7 @@
       </c>
       <c r="L1240" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72411,7 +72411,7 @@
       </c>
       <c r="L1241" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72469,7 +72469,7 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72585,7 +72585,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72643,7 +72643,7 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72701,7 +72701,7 @@
       </c>
       <c r="L1246" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72759,7 +72759,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72817,7 +72817,7 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72933,7 +72933,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -72991,7 +72991,7 @@
       </c>
       <c r="L1251" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -73049,7 +73049,7 @@
       </c>
       <c r="L1252" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -73107,7 +73107,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -73218,7 +73218,7 @@
       </c>
       <c r="K1255" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L1255" t="inlineStr">
@@ -73271,7 +73271,7 @@
       </c>
       <c r="J1256" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1256" t="inlineStr">
@@ -73281,7 +73281,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -73387,12 +73387,12 @@
       </c>
       <c r="J1258" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1258" t="inlineStr">
@@ -73455,7 +73455,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -73798,7 +73798,7 @@
       </c>
       <c r="K1265" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1265" t="inlineStr">
@@ -74209,7 +74209,7 @@
       </c>
       <c r="L1272" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -74257,7 +74257,7 @@
       </c>
       <c r="J1273" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1273" t="inlineStr">
@@ -74315,7 +74315,7 @@
       </c>
       <c r="J1274" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K1274" t="inlineStr">
@@ -74489,7 +74489,7 @@
       </c>
       <c r="J1277" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K1277" t="inlineStr">
@@ -74552,7 +74552,7 @@
       </c>
       <c r="K1278" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L1278" t="inlineStr">
@@ -74731,7 +74731,7 @@
       </c>
       <c r="L1281" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
